--- a/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/RGB_n.xlsx
+++ b/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/RGB_n.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.13735896374203449</v>
+      </c>
+      <c r="B1">
+        <v>0.71632427367301299</v>
+      </c>
+      <c r="C1">
+        <v>0.55219022973870036</v>
+      </c>
+      <c r="D1">
+        <v>0.935598965647223</v>
+      </c>
+      <c r="E1">
+        <v>0.0087603365023693723</v>
+      </c>
+      <c r="F1">
+        <v>0.78281185019536137</v>
+      </c>
+      <c r="G1">
+        <v>0.94072490532360598</v>
+      </c>
+      <c r="H1">
+        <v>0.99561988151785152</v>
+      </c>
+      <c r="I1">
+        <v>0.0028705954695445197</v>
+      </c>
+      <c r="J1">
+        <v>0.68832114594817606</v>
+      </c>
+      <c r="K1">
+        <v>0.98512121346181902</v>
+      </c>
+      <c r="L1">
+        <v>0.99856470226522775</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.15309602437335543</v>
+      </c>
+      <c r="B2">
+        <v>0.78465446497925861</v>
+      </c>
+      <c r="C2">
+        <v>0.47460500301462288</v>
+      </c>
+      <c r="D2">
+        <v>0.92643505210429755</v>
+      </c>
+      <c r="E2">
+        <v>0.028781923262434797</v>
+      </c>
+      <c r="F2">
+        <v>0.80190703111331285</v>
+      </c>
+      <c r="G2">
+        <v>0.78897385733639125</v>
+      </c>
+      <c r="H2">
+        <v>0.9856091658158086</v>
+      </c>
+      <c r="I2">
+        <v>0.00046820655957754829</v>
+      </c>
+      <c r="J2">
+        <v>0.16717507726009193</v>
+      </c>
+      <c r="K2">
+        <v>0.99888776491555198</v>
+      </c>
+      <c r="L2">
+        <v>0.99976589672021121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.23038861128720584</v>
+      </c>
+      <c r="B3">
+        <v>0.66079378668775923</v>
+      </c>
+      <c r="C3">
+        <v>0.38160838928927582</v>
+      </c>
+      <c r="D3">
+        <v>0.89025959657689202</v>
+      </c>
+      <c r="E3">
+        <v>0.077844955933743951</v>
+      </c>
+      <c r="F3">
+        <v>0.82150457728695925</v>
+      </c>
+      <c r="G3">
+        <v>0.49625887081502845</v>
+      </c>
+      <c r="H3">
+        <v>0.96107752203312835</v>
+      </c>
+      <c r="I3">
+        <v>0.00015862346977564033</v>
+      </c>
+      <c r="J3">
+        <v>0.69807130911463189</v>
+      </c>
+      <c r="K3">
+        <v>0.99928543789068036</v>
+      </c>
+      <c r="L3">
+        <v>0.99992068826511216</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.13595643975591323</v>
+      </c>
+      <c r="B4">
+        <v>0.8280506040927198</v>
+      </c>
+      <c r="C4">
+        <v>0.34089024450013533</v>
+      </c>
+      <c r="D4">
+        <v>0.93215082228894386</v>
+      </c>
+      <c r="E4">
+        <v>0.02777273630679325</v>
+      </c>
+      <c r="F4">
+        <v>0.86927619585787408</v>
+      </c>
+      <c r="G4">
+        <v>0.76506674371925798</v>
+      </c>
+      <c r="H4">
+        <v>0.98611363184660328</v>
+      </c>
+      <c r="I4">
+        <v>0.061628073840773012</v>
+      </c>
+      <c r="J4">
+        <v>0.79679556742922075</v>
+      </c>
+      <c r="K4">
+        <v>0.64221301870417624</v>
+      </c>
+      <c r="L4">
+        <v>0.96918596307961347</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>